--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_AV-MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_AV-MCPS.xlsx
@@ -429,16 +429,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>79.30598487075144</v>
+        <v>71.80040646296555</v>
       </c>
       <c r="C2">
-        <v>73.510037310614</v>
+        <v>76.0515352652897</v>
       </c>
       <c r="D2">
-        <v>81.31948300608471</v>
+        <v>67.08205777666116</v>
       </c>
       <c r="E2">
-        <v>75.05507724542811</v>
+        <v>81.3979961982961</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>99.18796714301295</v>
+        <v>94.79333533292099</v>
       </c>
       <c r="C3">
-        <v>98.98601363818675</v>
+        <v>92.92205992593887</v>
       </c>
       <c r="D3">
-        <v>99.10914778084937</v>
+        <v>94.23739774346879</v>
       </c>
       <c r="E3">
-        <v>99.14374229687706</v>
+        <v>94.1575531821819</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +463,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>99.06364033628365</v>
+        <v>99.02321707674155</v>
       </c>
       <c r="C4">
-        <v>98.72826900690848</v>
+        <v>98.81177698375096</v>
       </c>
       <c r="D4">
-        <v>98.66377755157518</v>
+        <v>98.99818792400407</v>
       </c>
       <c r="E4">
-        <v>98.8761125582914</v>
+        <v>99.07712320080182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>98.6173184438032</v>
+        <v>98.82435018620338</v>
       </c>
       <c r="C5">
-        <v>98.72480090283867</v>
+        <v>98.94723411352066</v>
       </c>
       <c r="D5">
-        <v>98.63638225175005</v>
+        <v>98.81146515271119</v>
       </c>
       <c r="E5">
-        <v>98.76188360881775</v>
+        <v>98.51576391116924</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.46117181582757</v>
+        <v>98.53849430365493</v>
       </c>
       <c r="C6">
-        <v>98.35939844469067</v>
+        <v>98.47104428594164</v>
       </c>
       <c r="D6">
-        <v>98.32126774469444</v>
+        <v>98.47552954347444</v>
       </c>
       <c r="E6">
-        <v>98.33227203423527</v>
+        <v>98.42869838002257</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,16 +514,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.61530374349326</v>
+        <v>97.52012708421618</v>
       </c>
       <c r="C7">
-        <v>97.60775417714096</v>
+        <v>97.52601928084786</v>
       </c>
       <c r="D7">
-        <v>97.55234727071466</v>
+        <v>97.56723329164841</v>
       </c>
       <c r="E7">
-        <v>97.52717073421751</v>
+        <v>97.57435071890701</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,16 +531,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>96.31727229951279</v>
+        <v>96.17949301444447</v>
       </c>
       <c r="C8">
-        <v>96.27578367806154</v>
+        <v>96.14312341725785</v>
       </c>
       <c r="D8">
-        <v>96.30113259903385</v>
+        <v>96.14193776916262</v>
       </c>
       <c r="E8">
-        <v>96.16593725187433</v>
+        <v>96.10174774157602</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_AV-MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_AV-MCPS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Var=0.2</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.52012708421618</v>
+        <v>97.93361859143396</v>
       </c>
       <c r="C7">
-        <v>97.52601928084786</v>
+        <v>98.00158872726553</v>
       </c>
       <c r="D7">
-        <v>97.56723329164841</v>
+        <v>98.04165037344067</v>
       </c>
       <c r="E7">
-        <v>97.57435071890701</v>
+        <v>97.96989947472225</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,15 +534,32 @@
         <v>10</v>
       </c>
       <c r="B8">
+        <v>97.52012708421618</v>
+      </c>
+      <c r="C8">
+        <v>97.52601928084786</v>
+      </c>
+      <c r="D8">
+        <v>97.56723329164841</v>
+      </c>
+      <c r="E8">
+        <v>97.57435071890701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>96.17949301444447</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>96.14312341725785</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>96.14193776916262</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>96.10174774157602</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_AV-MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_AV-MCPS.xlsx
@@ -432,16 +432,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>71.80040646296555</v>
+        <v>71.72273850654022</v>
       </c>
       <c r="C2">
-        <v>76.0515352652897</v>
+        <v>75.92559237889883</v>
       </c>
       <c r="D2">
-        <v>67.08205777666116</v>
+        <v>66.96454883252153</v>
       </c>
       <c r="E2">
-        <v>81.3979961982961</v>
+        <v>81.26516350809368</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,16 +449,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>94.79333533292099</v>
+        <v>94.79900830803332</v>
       </c>
       <c r="C3">
-        <v>92.92205992593887</v>
+        <v>92.94399963605767</v>
       </c>
       <c r="D3">
-        <v>94.23739774346879</v>
+        <v>94.23955928205713</v>
       </c>
       <c r="E3">
-        <v>94.1575531821819</v>
+        <v>94.198797909213</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,16 +466,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>99.02321707674155</v>
+        <v>99.02226893752193</v>
       </c>
       <c r="C4">
-        <v>98.81177698375096</v>
+        <v>98.80816347945904</v>
       </c>
       <c r="D4">
-        <v>98.99818792400407</v>
+        <v>98.99522961424103</v>
       </c>
       <c r="E4">
-        <v>99.07712320080182</v>
+        <v>99.07492965207499</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,16 +483,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>98.82435018620338</v>
+        <v>98.82380975909007</v>
       </c>
       <c r="C5">
-        <v>98.94723411352066</v>
+        <v>98.94682003618239</v>
       </c>
       <c r="D5">
-        <v>98.81146515271119</v>
+        <v>98.81328174316312</v>
       </c>
       <c r="E5">
-        <v>98.51576391116924</v>
+        <v>98.51446325242584</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -500,16 +500,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.53849430365493</v>
+        <v>98.53829915692887</v>
       </c>
       <c r="C6">
-        <v>98.47104428594164</v>
+        <v>98.47172813241689</v>
       </c>
       <c r="D6">
-        <v>98.47552954347444</v>
+        <v>98.47431520005637</v>
       </c>
       <c r="E6">
-        <v>98.42869838002257</v>
+        <v>98.42970702669392</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.93361859143396</v>
+        <v>97.98219450712455</v>
       </c>
       <c r="C7">
-        <v>98.00158872726553</v>
+        <v>97.99486113053918</v>
       </c>
       <c r="D7">
-        <v>98.04165037344067</v>
+        <v>98.0413531971639</v>
       </c>
       <c r="E7">
-        <v>97.96989947472225</v>
+        <v>97.955660389679</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -534,16 +534,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>97.52012708421618</v>
+        <v>97.5378865162842</v>
       </c>
       <c r="C8">
-        <v>97.52601928084786</v>
+        <v>97.49600345956333</v>
       </c>
       <c r="D8">
-        <v>97.56723329164841</v>
+        <v>97.55309504890855</v>
       </c>
       <c r="E8">
-        <v>97.57435071890701</v>
+        <v>97.50025393896046</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -551,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>96.17949301444447</v>
+        <v>96.16900119132742</v>
       </c>
       <c r="C9">
-        <v>96.14312341725785</v>
+        <v>96.16855075239933</v>
       </c>
       <c r="D9">
-        <v>96.14193776916262</v>
+        <v>96.15633004841125</v>
       </c>
       <c r="E9">
-        <v>96.10174774157602</v>
+        <v>96.20004453905575</v>
       </c>
     </row>
   </sheetData>
